--- a/examples/sources/data/unsolved/to_schedule/2019-02-28.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-28.xlsx
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
         <v>43524</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
         <v>43524</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N173">
         <v>1</v>
